--- a/MyDatatable.xlsx
+++ b/MyDatatable.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\UiPath\UI_Path\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF20FFD-824C-4A3C-9E11-B0F6C4E5D558}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="12516" yWindow="1320" windowWidth="10524" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,43 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
+  <si>
+    <t>Invoice Number</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>text'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vedvrat </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VEDVRATSP@GMAIL.COM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-12-2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CA$33.33 </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +90,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +375,238 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2356</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2356</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2356</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2356</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>